--- a/Team-Data/2011-12/4-18-2011-12.xlsx
+++ b/Team-Data/2011-12/4-18-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,67 +733,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
         <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.597</v>
+        <v>0.59</v>
       </c>
       <c r="H2" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L2" t="n">
         <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O2" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P2" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R2" t="n">
         <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U2" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V2" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
         <v>4.9</v>
@@ -738,13 +805,13 @@
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -771,25 +838,25 @@
         <v>9</v>
       </c>
       <c r="AM2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -801,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -819,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
         <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.587</v>
+        <v>0.581</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
         <v>0.368</v>
       </c>
       <c r="O3" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R3" t="n">
         <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="U3" t="n">
         <v>23.8</v>
@@ -917,31 +984,31 @@
         <v>20.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="AC3" t="n">
         <v>2.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -977,25 +1044,25 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
         <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="J4" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.414</v>
+        <v>0.416</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.296</v>
+        <v>0.298</v>
       </c>
       <c r="O4" t="n">
         <v>16.5</v>
@@ -1072,19 +1139,19 @@
         <v>0.747</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T4" t="n">
         <v>39</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>6.2</v>
@@ -1099,13 +1166,13 @@
         <v>19.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.2</v>
+        <v>87.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.6</v>
+        <v>-13.3</v>
       </c>
       <c r="AD4" t="n">
         <v>25</v>
@@ -1132,10 +1199,10 @@
         <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
         <v>30</v>
@@ -1159,10 +1226,10 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1242,34 +1309,34 @@
         <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P5" t="n">
         <v>21.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="R5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="V5" t="n">
         <v>14.2</v>
       </c>
-      <c r="S5" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="U5" t="n">
-        <v>23</v>
-      </c>
-      <c r="V5" t="n">
-        <v>14.1</v>
-      </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
@@ -1284,13 +1351,13 @@
         <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1320,10 +1387,10 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1412,7 +1479,7 @@
         <v>34.2</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.422</v>
@@ -1421,28 +1488,28 @@
         <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N6" t="n">
         <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R6" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
         <v>29.6</v>
       </c>
       <c r="T6" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
         <v>20.2</v>
@@ -1451,25 +1518,25 @@
         <v>15.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="AD6" t="n">
         <v>25</v>
@@ -1502,13 +1569,13 @@
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,16 +1584,16 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
@@ -1538,13 +1605,13 @@
         <v>28</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
         <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.556</v>
+        <v>0.548</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
@@ -1594,34 +1661,34 @@
         <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L7" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O7" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="P7" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.765</v>
+        <v>0.762</v>
       </c>
       <c r="R7" t="n">
         <v>10</v>
       </c>
       <c r="S7" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T7" t="n">
         <v>42.7</v>
@@ -1639,7 +1706,7 @@
         <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
         <v>18.8</v>
@@ -1648,22 +1715,22 @@
         <v>18.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>96</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>3</v>
@@ -1675,7 +1742,7 @@
         <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,13 +1751,13 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>27</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>12</v>
@@ -1699,10 +1766,10 @@
         <v>27</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
         <v>14</v>
@@ -1714,13 +1781,13 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -1758,55 +1825,55 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
         <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.548</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I8" t="n">
         <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
         <v>20.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O8" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P8" t="n">
         <v>27.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R8" t="n">
         <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T8" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U8" t="n">
         <v>23.8</v>
@@ -1827,25 +1894,25 @@
         <v>19.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1887,13 +1954,13 @@
         <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
         <v>23</v>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J9" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R9" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="T9" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U9" t="n">
         <v>18.7</v>
       </c>
       <c r="V9" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
         <v>4.2</v>
@@ -2009,22 +2076,22 @@
         <v>19.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.2</v>
+        <v>-4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
         <v>22</v>
@@ -2039,16 +2106,16 @@
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2057,10 +2124,10 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2078,7 +2145,7 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2087,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.361</v>
+        <v>0.367</v>
       </c>
       <c r="H10" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
         <v>37.7</v>
       </c>
       <c r="J10" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K10" t="n">
         <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M10" t="n">
         <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.389</v>
+        <v>0.392</v>
       </c>
       <c r="O10" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P10" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R10" t="n">
         <v>9.800000000000001</v>
@@ -2191,13 +2258,13 @@
         <v>21.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD10" t="n">
         <v>25</v>
@@ -2206,7 +2273,7 @@
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2218,7 +2285,7 @@
         <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>8</v>
@@ -2230,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10" t="n">
         <v>29</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2257,10 +2324,10 @@
         <v>5</v>
       </c>
       <c r="AW10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>0.516</v>
+        <v>0.525</v>
       </c>
       <c r="H11" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J11" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O11" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="n">
         <v>0.788</v>
@@ -2355,58 +2422,58 @@
         <v>42.1</v>
       </c>
       <c r="U11" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
         <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
       </c>
       <c r="AK11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL11" t="n">
         <v>12</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>14</v>
@@ -2415,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2430,31 +2497,31 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU11" t="n">
         <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
         <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,10 +2643,10 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>19</v>
@@ -2618,7 +2685,7 @@
         <v>29</v>
       </c>
       <c r="AV12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW12" t="n">
         <v>14</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="n">
         <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,43 +2753,43 @@
         <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M13" t="n">
         <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
         <v>15.7</v>
       </c>
       <c r="P13" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
         <v>0.679</v>
       </c>
       <c r="R13" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T13" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U13" t="n">
         <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W13" t="n">
         <v>8.300000000000001</v>
@@ -2734,19 +2801,19 @@
         <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA13" t="n">
         <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>2.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2776,13 +2843,13 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP13" t="n">
         <v>11</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2803,25 +2870,25 @@
         <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
         <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
         <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.635</v>
+        <v>0.629</v>
       </c>
       <c r="H14" t="n">
         <v>48.6</v>
@@ -2871,22 +2938,22 @@
         <v>80.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L14" t="n">
         <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="O14" t="n">
         <v>18.1</v>
       </c>
       <c r="P14" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q14" t="n">
         <v>0.757</v>
@@ -2895,16 +2962,16 @@
         <v>12</v>
       </c>
       <c r="S14" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="T14" t="n">
-        <v>46.2</v>
+        <v>46.1</v>
       </c>
       <c r="U14" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V14" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W14" t="n">
         <v>5.8</v>
@@ -2916,22 +2983,22 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>20.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD14" t="n">
         <v>2</v>
       </c>
-      <c r="AD14" t="n">
-        <v>1</v>
-      </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2943,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>11</v>
@@ -3003,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -3032,67 +3099,67 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.597</v>
+        <v>0.59</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J15" t="n">
         <v>82.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M15" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
         <v>12.5</v>
       </c>
       <c r="S15" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T15" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U15" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V15" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W15" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
         <v>5.6</v>
@@ -3101,16 +3168,16 @@
         <v>19.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
@@ -3125,13 +3192,13 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,7 +3207,7 @@
         <v>28</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
@@ -3149,16 +3216,16 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
@@ -3170,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>22</v>
@@ -3185,7 +3252,7 @@
         <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.721</v>
+        <v>0.717</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3232,10 +3299,10 @@
         <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L16" t="n">
         <v>5.6</v>
@@ -3247,13 +3314,13 @@
         <v>0.363</v>
       </c>
       <c r="O16" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P16" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
         <v>10.3</v>
@@ -3280,16 +3347,16 @@
         <v>4.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
         <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD16" t="n">
         <v>25</v>
@@ -3331,7 +3398,7 @@
         <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3352,13 +3419,13 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.475</v>
+        <v>0.483</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,7 +3481,7 @@
         <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="K17" t="n">
         <v>0.445</v>
@@ -3426,31 +3493,31 @@
         <v>19.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O17" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S17" t="n">
         <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U17" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V17" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W17" t="n">
         <v>8.300000000000001</v>
@@ -3459,19 +3526,19 @@
         <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z17" t="n">
         <v>19.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD17" t="n">
         <v>25</v>
@@ -3513,13 +3580,13 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>17</v>
@@ -3528,13 +3595,13 @@
         <v>1</v>
       </c>
       <c r="AV17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW17" t="n">
         <v>6</v>
       </c>
-      <c r="AW17" t="n">
-        <v>7</v>
-      </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -3668,13 +3735,13 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3695,25 +3762,25 @@
         <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>0.349</v>
+        <v>0.355</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,7 +3845,7 @@
         <v>34.4</v>
       </c>
       <c r="J19" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.426</v>
@@ -3790,34 +3857,34 @@
         <v>22.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
         <v>17</v>
       </c>
       <c r="P19" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T19" t="n">
         <v>40.4</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X19" t="n">
         <v>4</v>
@@ -3826,19 +3893,19 @@
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC19" t="n">
         <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3868,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3877,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>10</v>
@@ -3892,10 +3959,10 @@
         <v>22</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
@@ -3907,7 +3974,7 @@
         <v>12</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>0.306</v>
+        <v>0.311</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="N20" t="n">
         <v>0.338</v>
       </c>
       <c r="O20" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
         <v>11</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V20" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="W20" t="n">
         <v>7.3</v>
@@ -4008,19 +4075,19 @@
         <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>30</v>
@@ -4050,16 +4117,16 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>19</v>
@@ -4077,7 +4144,7 @@
         <v>25</v>
       </c>
       <c r="AW20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX20" t="n">
         <v>21</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
         <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>0.532</v>
+        <v>0.525</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4145,16 +4212,16 @@
         <v>80.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L21" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M21" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O21" t="n">
         <v>18.7</v>
@@ -4163,7 +4230,7 @@
         <v>25.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R21" t="n">
         <v>11.5</v>
@@ -4175,13 +4242,13 @@
         <v>42.2</v>
       </c>
       <c r="U21" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V21" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X21" t="n">
         <v>4.2</v>
@@ -4190,19 +4257,19 @@
         <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>14</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4232,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ21" t="n">
         <v>20</v>
@@ -4268,16 +4335,16 @@
         <v>18</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.726</v>
+        <v>0.721</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4336,16 +4403,16 @@
         <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.802</v>
+        <v>0.799</v>
       </c>
       <c r="R22" t="n">
         <v>11</v>
@@ -4360,7 +4427,7 @@
         <v>18.4</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
         <v>7.6</v>
@@ -4372,19 +4439,19 @@
         <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4411,10 +4478,10 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4450,10 +4517,10 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" t="n">
         <v>36</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>0.581</v>
+        <v>0.59</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4512,28 +4579,28 @@
         <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M23" t="n">
         <v>26.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O23" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P23" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="n">
         <v>0.658</v>
       </c>
       <c r="R23" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
         <v>42.7</v>
@@ -4548,34 +4615,34 @@
         <v>6.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AA23" t="n">
         <v>19.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AH23" t="n">
         <v>15</v>
@@ -4584,10 +4651,10 @@
         <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,25 +4663,25 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>28</v>
       </c>
       <c r="AP23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
@@ -4623,25 +4690,25 @@
         <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ23" t="n">
         <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
         <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J24" t="n">
         <v>83.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M24" t="n">
         <v>14.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.364</v>
+        <v>0.36</v>
       </c>
       <c r="O24" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="P24" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="Q24" t="n">
         <v>0.741</v>
@@ -4715,16 +4782,16 @@
         <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -4733,31 +4800,31 @@
         <v>5.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="n">
         <v>26</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,19 +4860,19 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="n">
         <v>32</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.516</v>
+        <v>0.525</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J25" t="n">
         <v>82.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
@@ -4882,16 +4949,16 @@
         <v>19.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O25" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P25" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
         <v>10.8</v>
@@ -4903,13 +4970,13 @@
         <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V25" t="n">
         <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X25" t="n">
         <v>5.6</v>
@@ -4921,31 +4988,31 @@
         <v>18.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB25" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>12</v>
@@ -4960,13 +5027,13 @@
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>14</v>
@@ -4975,16 +5042,16 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4996,13 +5063,13 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.444</v>
+        <v>0.452</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
         <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
@@ -5064,13 +5131,13 @@
         <v>20.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O26" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q26" t="n">
         <v>0.795</v>
@@ -5079,7 +5146,7 @@
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T26" t="n">
         <v>40.7</v>
@@ -5088,7 +5155,7 @@
         <v>20.5</v>
       </c>
       <c r="V26" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
@@ -5106,13 +5173,13 @@
         <v>19.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5133,7 +5200,7 @@
         <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>8</v>
@@ -5142,7 +5209,7 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
@@ -5166,10 +5233,10 @@
         <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
         <v>16</v>
@@ -5181,13 +5248,13 @@
         <v>10</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="n">
-        <v>0.323</v>
+        <v>0.328</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5234,7 +5301,7 @@
         <v>37.3</v>
       </c>
       <c r="J27" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.432</v>
@@ -5249,28 +5316,28 @@
         <v>0.316</v>
       </c>
       <c r="O27" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P27" t="n">
         <v>23.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R27" t="n">
         <v>13.5</v>
       </c>
       <c r="S27" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U27" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V27" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>8.5</v>
@@ -5279,22 +5346,22 @@
         <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA27" t="n">
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.4</v>
+        <v>-6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
         <v>11</v>
@@ -5333,16 +5400,16 @@
         <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5354,22 +5421,22 @@
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="n">
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.738</v>
+        <v>0.733</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J28" t="n">
         <v>82.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.474</v>
+        <v>0.472</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
@@ -5431,13 +5498,13 @@
         <v>0.39</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R28" t="n">
         <v>10.3</v>
@@ -5449,7 +5516,7 @@
         <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V28" t="n">
         <v>13.5</v>
@@ -5464,16 +5531,16 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
         <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.7</v>
+        <v>102.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AD28" t="n">
         <v>25</v>
@@ -5506,13 +5573,13 @@
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>22</v>
@@ -5521,7 +5588,7 @@
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>0.349</v>
+        <v>0.355</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J29" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M29" t="n">
         <v>16.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.337</v>
+        <v>0.342</v>
       </c>
       <c r="O29" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P29" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U29" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
         <v>15</v>
@@ -5646,19 +5713,19 @@
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA29" t="n">
         <v>18.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5670,13 +5737,13 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
       </c>
       <c r="AJ29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
@@ -5688,31 +5755,31 @@
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.524</v>
+        <v>0.516</v>
       </c>
       <c r="H30" t="n">
         <v>49</v>
@@ -5780,40 +5847,40 @@
         <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.456</v>
       </c>
       <c r="L30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.322</v>
+        <v>0.316</v>
       </c>
       <c r="O30" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P30" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S30" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
         <v>43.9</v>
       </c>
       <c r="U30" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V30" t="n">
         <v>14.3</v>
@@ -5828,28 +5895,28 @@
         <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5864,19 +5931,19 @@
         <v>9</v>
       </c>
       <c r="AL30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
@@ -5885,19 +5952,19 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
         <v>13</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
         <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.258</v>
+        <v>0.246</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.322</v>
+        <v>0.319</v>
       </c>
       <c r="O31" t="n">
         <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T31" t="n">
         <v>41.5</v>
       </c>
       <c r="U31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
         <v>6.5</v>
@@ -6010,19 +6077,19 @@
         <v>4.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA31" t="n">
         <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6046,7 +6113,7 @@
         <v>25</v>
       </c>
       <c r="AL31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
@@ -6055,16 +6122,16 @@
         <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>20</v>
@@ -6076,7 +6143,7 @@
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>25</v>
@@ -6094,10 +6161,10 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-18-2011-12</t>
+          <t>2012-04-18</t>
         </is>
       </c>
     </row>
